--- a/reactive/routers_buffer_dynamic_shuffle.xlsx
+++ b/reactive/routers_buffer_dynamic_shuffle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E869503-F76C-4BB9-AF2B-D7A31EEF893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21BCD67-CD95-4A4B-8176-EA40AC2F5E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10896" yWindow="1176" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -118,27 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2223,7 +2203,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reactive/routers_buffer_dynamic_shuffle.xlsx
+++ b/reactive/routers_buffer_dynamic_shuffle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21BCD67-CD95-4A4B-8176-EA40AC2F5E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177A725-588B-41A1-8AFC-DDB66B972E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23616" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2749,9 +2752,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2A7D45-852B-4746-9A49-CA9A573DCADA}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3490,6 +3495,47 @@
         <v>3.7766569998700001E-4</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>3.4430019566925003E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:K22" si="0">AVERAGE(D2:D21)</f>
+        <v>3.7440170049239999E-4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.6336416328739996E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3.6336416328739996E-4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3.4430019566925003E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3.7564937499740003E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>3.4430019566925003E-4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>3.3109045533399997E-4</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.3109045533399997E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
